--- a/docs/gantt_9_26.xlsx
+++ b/docs/gantt_9_26.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucas/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XAMPP\htdocs\transitwise\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C016ABC8-1975-3544-8359-4084CA3D58BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4621120-32BC-4749-997D-88C062E93C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt Chart" sheetId="1" r:id="rId1"/>
@@ -185,9 +185,6 @@
     <t>Flight Data Collection/Input</t>
   </si>
   <si>
-    <t>Jonathan + Steven</t>
-  </si>
-  <si>
     <t>Basic Website template</t>
   </si>
   <si>
@@ -197,9 +194,6 @@
     <t>Finacial Transaction Simulator</t>
   </si>
   <si>
-    <t>Steven+Jonathan</t>
-  </si>
-  <si>
     <t>Lucas + Aidan</t>
   </si>
   <si>
@@ -225,6 +219,12 @@
   </si>
   <si>
     <t>Javascript for Linking SQL and HTML</t>
+  </si>
+  <si>
+    <t>Jonathan</t>
+  </si>
+  <si>
+    <t>Steven</t>
   </si>
 </sst>
 </file>
@@ -782,6 +782,27 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -796,14 +817,9 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -815,22 +831,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1164,23 +1164,23 @@
   </sheetPr>
   <dimension ref="A1:BZ40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19:J20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
     <col min="5" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="57"/>
-    <col min="9" max="78" width="3.5" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="57"/>
+    <col min="9" max="78" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1260,40 +1260,40 @@
       <c r="BY1" s="1"/>
       <c r="BZ1" s="1"/>
     </row>
-    <row r="2" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
       <c r="H2" s="51"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="61"/>
-      <c r="X2" s="61"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="61"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="61"/>
-      <c r="AC2" s="61"/>
-      <c r="AD2" s="61"/>
-      <c r="AE2" s="61"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="72"/>
+      <c r="V2" s="72"/>
+      <c r="W2" s="72"/>
+      <c r="X2" s="72"/>
+      <c r="Y2" s="72"/>
+      <c r="Z2" s="72"/>
+      <c r="AA2" s="72"/>
+      <c r="AB2" s="72"/>
+      <c r="AC2" s="72"/>
+      <c r="AD2" s="72"/>
+      <c r="AE2" s="72"/>
       <c r="AF2" s="10"/>
       <c r="AG2" s="10"/>
       <c r="AH2" s="10"/>
@@ -1342,7 +1342,7 @@
       <c r="BY2" s="1"/>
       <c r="BZ2" s="1"/>
     </row>
-    <row r="3" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -1422,13 +1422,13 @@
       <c r="BY3" s="1"/>
       <c r="BZ3" s="1"/>
     </row>
-    <row r="4" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1"/>
       <c r="B4" s="64" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="65"/>
-      <c r="D4" s="66" t="s">
+      <c r="D4" s="75" t="s">
         <v>43</v>
       </c>
       <c r="E4" s="67"/>
@@ -1444,7 +1444,7 @@
       <c r="M4" s="65"/>
       <c r="N4" s="65"/>
       <c r="O4" s="65"/>
-      <c r="P4" s="68" t="s">
+      <c r="P4" s="76" t="s">
         <v>2</v>
       </c>
       <c r="Q4" s="67"/>
@@ -1510,13 +1510,13 @@
       <c r="BY4" s="1"/>
       <c r="BZ4" s="1"/>
     </row>
-    <row r="5" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="1"/>
       <c r="B5" s="64" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="65"/>
-      <c r="D5" s="78" t="s">
+      <c r="D5" s="66" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="67"/>
@@ -1532,7 +1532,7 @@
       <c r="M5" s="65"/>
       <c r="N5" s="65"/>
       <c r="O5" s="65"/>
-      <c r="P5" s="79">
+      <c r="P5" s="68">
         <v>45174</v>
       </c>
       <c r="Q5" s="67"/>
@@ -1598,7 +1598,7 @@
       <c r="BY5" s="1"/>
       <c r="BZ5" s="1"/>
     </row>
-    <row r="6" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18"/>
       <c r="B6" s="44" t="s">
         <v>25</v>
@@ -1682,7 +1682,7 @@
       <c r="BY6" s="18"/>
       <c r="BZ6" s="18"/>
     </row>
-    <row r="7" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18"/>
       <c r="B7" s="44" t="s">
         <v>26</v>
@@ -1766,209 +1766,209 @@
       <c r="BY7" s="18"/>
       <c r="BZ7" s="18"/>
     </row>
-    <row r="8" spans="1:78" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:78" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="21"/>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="58" t="s">
+      <c r="D8" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="58" t="s">
+      <c r="E8" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="58" t="s">
+      <c r="F8" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="58" t="s">
+      <c r="G8" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="69" t="s">
+      <c r="H8" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="71"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="72"/>
-      <c r="N8" s="72"/>
-      <c r="O8" s="72"/>
-      <c r="P8" s="72"/>
-      <c r="Q8" s="72"/>
-      <c r="R8" s="72"/>
-      <c r="S8" s="72"/>
-      <c r="T8" s="72"/>
-      <c r="U8" s="72"/>
-      <c r="V8" s="72"/>
-      <c r="W8" s="72"/>
-      <c r="X8" s="73"/>
-      <c r="Y8" s="72"/>
-      <c r="Z8" s="72"/>
-      <c r="AA8" s="72"/>
-      <c r="AB8" s="72"/>
-      <c r="AC8" s="72"/>
-      <c r="AD8" s="72"/>
-      <c r="AE8" s="72"/>
-      <c r="AF8" s="72"/>
-      <c r="AG8" s="72"/>
-      <c r="AH8" s="72"/>
-      <c r="AI8" s="72"/>
-      <c r="AJ8" s="72"/>
-      <c r="AK8" s="72"/>
-      <c r="AL8" s="72"/>
-      <c r="AM8" s="73"/>
-      <c r="AN8" s="72"/>
-      <c r="AO8" s="72"/>
-      <c r="AP8" s="72"/>
-      <c r="AQ8" s="72"/>
-      <c r="AR8" s="72"/>
-      <c r="AS8" s="72"/>
-      <c r="AT8" s="72"/>
-      <c r="AU8" s="72"/>
-      <c r="AV8" s="72"/>
-      <c r="AW8" s="72"/>
-      <c r="AX8" s="72"/>
-      <c r="AY8" s="72"/>
-      <c r="AZ8" s="72"/>
-      <c r="BA8" s="72"/>
-      <c r="BB8" s="73"/>
-      <c r="BC8" s="72"/>
-      <c r="BD8" s="72"/>
-      <c r="BE8" s="72"/>
-      <c r="BF8" s="72"/>
-      <c r="BG8" s="72"/>
-      <c r="BH8" s="72"/>
-      <c r="BI8" s="72"/>
-      <c r="BJ8" s="72"/>
-      <c r="BK8" s="72"/>
-      <c r="BL8" s="72"/>
-      <c r="BM8" s="72"/>
-      <c r="BN8" s="72"/>
-      <c r="BO8" s="72"/>
-      <c r="BP8" s="72"/>
-      <c r="BQ8" s="72"/>
-      <c r="BR8" s="72"/>
-      <c r="BS8" s="72"/>
-      <c r="BT8" s="72"/>
-      <c r="BU8" s="72"/>
-      <c r="BV8" s="72"/>
-      <c r="BW8" s="72"/>
-      <c r="BX8" s="72"/>
-      <c r="BY8" s="72"/>
-      <c r="BZ8" s="77"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="59"/>
+      <c r="P8" s="59"/>
+      <c r="Q8" s="59"/>
+      <c r="R8" s="59"/>
+      <c r="S8" s="59"/>
+      <c r="T8" s="59"/>
+      <c r="U8" s="59"/>
+      <c r="V8" s="59"/>
+      <c r="W8" s="59"/>
+      <c r="X8" s="58"/>
+      <c r="Y8" s="59"/>
+      <c r="Z8" s="59"/>
+      <c r="AA8" s="59"/>
+      <c r="AB8" s="59"/>
+      <c r="AC8" s="59"/>
+      <c r="AD8" s="59"/>
+      <c r="AE8" s="59"/>
+      <c r="AF8" s="59"/>
+      <c r="AG8" s="59"/>
+      <c r="AH8" s="59"/>
+      <c r="AI8" s="59"/>
+      <c r="AJ8" s="59"/>
+      <c r="AK8" s="59"/>
+      <c r="AL8" s="59"/>
+      <c r="AM8" s="58"/>
+      <c r="AN8" s="59"/>
+      <c r="AO8" s="59"/>
+      <c r="AP8" s="59"/>
+      <c r="AQ8" s="59"/>
+      <c r="AR8" s="59"/>
+      <c r="AS8" s="59"/>
+      <c r="AT8" s="59"/>
+      <c r="AU8" s="59"/>
+      <c r="AV8" s="59"/>
+      <c r="AW8" s="59"/>
+      <c r="AX8" s="59"/>
+      <c r="AY8" s="59"/>
+      <c r="AZ8" s="59"/>
+      <c r="BA8" s="59"/>
+      <c r="BB8" s="58"/>
+      <c r="BC8" s="59"/>
+      <c r="BD8" s="59"/>
+      <c r="BE8" s="59"/>
+      <c r="BF8" s="59"/>
+      <c r="BG8" s="59"/>
+      <c r="BH8" s="59"/>
+      <c r="BI8" s="59"/>
+      <c r="BJ8" s="59"/>
+      <c r="BK8" s="59"/>
+      <c r="BL8" s="59"/>
+      <c r="BM8" s="59"/>
+      <c r="BN8" s="59"/>
+      <c r="BO8" s="59"/>
+      <c r="BP8" s="59"/>
+      <c r="BQ8" s="59"/>
+      <c r="BR8" s="59"/>
+      <c r="BS8" s="59"/>
+      <c r="BT8" s="59"/>
+      <c r="BU8" s="59"/>
+      <c r="BV8" s="59"/>
+      <c r="BW8" s="59"/>
+      <c r="BX8" s="59"/>
+      <c r="BY8" s="59"/>
+      <c r="BZ8" s="60"/>
     </row>
-    <row r="9" spans="1:78" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:78" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="22"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="74" t="s">
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="75"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="75"/>
-      <c r="M9" s="76"/>
-      <c r="N9" s="74" t="s">
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="O9" s="75"/>
-      <c r="P9" s="75"/>
-      <c r="Q9" s="75"/>
-      <c r="R9" s="76"/>
-      <c r="S9" s="74" t="s">
+      <c r="O9" s="62"/>
+      <c r="P9" s="62"/>
+      <c r="Q9" s="62"/>
+      <c r="R9" s="63"/>
+      <c r="S9" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="T9" s="75"/>
-      <c r="U9" s="75"/>
-      <c r="V9" s="75"/>
-      <c r="W9" s="76"/>
-      <c r="X9" s="74" t="s">
+      <c r="T9" s="62"/>
+      <c r="U9" s="62"/>
+      <c r="V9" s="62"/>
+      <c r="W9" s="63"/>
+      <c r="X9" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="Y9" s="75"/>
-      <c r="Z9" s="75"/>
-      <c r="AA9" s="75"/>
-      <c r="AB9" s="76"/>
-      <c r="AC9" s="74" t="s">
+      <c r="Y9" s="62"/>
+      <c r="Z9" s="62"/>
+      <c r="AA9" s="62"/>
+      <c r="AB9" s="63"/>
+      <c r="AC9" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="AD9" s="75"/>
-      <c r="AE9" s="75"/>
-      <c r="AF9" s="75"/>
-      <c r="AG9" s="76"/>
-      <c r="AH9" s="74" t="s">
+      <c r="AD9" s="62"/>
+      <c r="AE9" s="62"/>
+      <c r="AF9" s="62"/>
+      <c r="AG9" s="63"/>
+      <c r="AH9" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="AI9" s="75"/>
-      <c r="AJ9" s="75"/>
-      <c r="AK9" s="75"/>
-      <c r="AL9" s="76"/>
-      <c r="AM9" s="74" t="s">
+      <c r="AI9" s="62"/>
+      <c r="AJ9" s="62"/>
+      <c r="AK9" s="62"/>
+      <c r="AL9" s="63"/>
+      <c r="AM9" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="AN9" s="75"/>
-      <c r="AO9" s="75"/>
-      <c r="AP9" s="75"/>
-      <c r="AQ9" s="76"/>
-      <c r="AR9" s="74" t="s">
+      <c r="AN9" s="62"/>
+      <c r="AO9" s="62"/>
+      <c r="AP9" s="62"/>
+      <c r="AQ9" s="63"/>
+      <c r="AR9" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="AS9" s="75"/>
-      <c r="AT9" s="75"/>
-      <c r="AU9" s="75"/>
-      <c r="AV9" s="76"/>
-      <c r="AW9" s="74" t="s">
+      <c r="AS9" s="62"/>
+      <c r="AT9" s="62"/>
+      <c r="AU9" s="62"/>
+      <c r="AV9" s="63"/>
+      <c r="AW9" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="AX9" s="75"/>
-      <c r="AY9" s="75"/>
-      <c r="AZ9" s="75"/>
-      <c r="BA9" s="76"/>
-      <c r="BB9" s="74" t="s">
+      <c r="AX9" s="62"/>
+      <c r="AY9" s="62"/>
+      <c r="AZ9" s="62"/>
+      <c r="BA9" s="63"/>
+      <c r="BB9" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="BC9" s="75"/>
-      <c r="BD9" s="75"/>
-      <c r="BE9" s="75"/>
-      <c r="BF9" s="76"/>
-      <c r="BG9" s="74" t="s">
+      <c r="BC9" s="62"/>
+      <c r="BD9" s="62"/>
+      <c r="BE9" s="62"/>
+      <c r="BF9" s="63"/>
+      <c r="BG9" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="BH9" s="75"/>
-      <c r="BI9" s="75"/>
-      <c r="BJ9" s="75"/>
-      <c r="BK9" s="76"/>
-      <c r="BL9" s="74" t="s">
+      <c r="BH9" s="62"/>
+      <c r="BI9" s="62"/>
+      <c r="BJ9" s="62"/>
+      <c r="BK9" s="63"/>
+      <c r="BL9" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="BM9" s="75"/>
-      <c r="BN9" s="75"/>
-      <c r="BO9" s="75"/>
-      <c r="BP9" s="76"/>
-      <c r="BQ9" s="74" t="s">
+      <c r="BM9" s="62"/>
+      <c r="BN9" s="62"/>
+      <c r="BO9" s="62"/>
+      <c r="BP9" s="63"/>
+      <c r="BQ9" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="BR9" s="75"/>
-      <c r="BS9" s="75"/>
-      <c r="BT9" s="75"/>
-      <c r="BU9" s="76"/>
-      <c r="BV9" s="74" t="s">
+      <c r="BR9" s="62"/>
+      <c r="BS9" s="62"/>
+      <c r="BT9" s="62"/>
+      <c r="BU9" s="63"/>
+      <c r="BV9" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="BW9" s="75"/>
-      <c r="BX9" s="75"/>
-      <c r="BY9" s="75"/>
-      <c r="BZ9" s="76"/>
+      <c r="BW9" s="62"/>
+      <c r="BX9" s="62"/>
+      <c r="BY9" s="62"/>
+      <c r="BZ9" s="63"/>
     </row>
-    <row r="10" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="18"/>
       <c r="B10" s="23">
         <v>1</v>
@@ -2052,7 +2052,7 @@
       <c r="BY10" s="26"/>
       <c r="BZ10" s="26"/>
     </row>
-    <row r="11" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A11" s="29"/>
       <c r="B11" s="30">
         <v>1.1000000000000001</v>
@@ -2147,7 +2147,7 @@
       <c r="BY11" s="34"/>
       <c r="BZ11" s="34"/>
     </row>
-    <row r="12" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A12" s="29"/>
       <c r="B12" s="30" t="s">
         <v>13</v>
@@ -2242,7 +2242,7 @@
       <c r="BY12" s="34"/>
       <c r="BZ12" s="34"/>
     </row>
-    <row r="13" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A13" s="29"/>
       <c r="B13" s="30">
         <v>1.2</v>
@@ -2337,7 +2337,7 @@
       <c r="BY13" s="34"/>
       <c r="BZ13" s="34"/>
     </row>
-    <row r="14" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A14" s="29"/>
       <c r="B14" s="30">
         <v>1.3</v>
@@ -2432,7 +2432,7 @@
       <c r="BY14" s="34"/>
       <c r="BZ14" s="34"/>
     </row>
-    <row r="15" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A15" s="29"/>
       <c r="B15" s="30">
         <v>1.4</v>
@@ -2527,13 +2527,13 @@
       <c r="BY15" s="34"/>
       <c r="BZ15" s="34"/>
     </row>
-    <row r="16" spans="1:78" ht="32" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:78" ht="32.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A16" s="29"/>
       <c r="B16" s="30">
         <v>1.5</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D16" s="31" t="s">
         <v>44</v>
@@ -2622,7 +2622,7 @@
       <c r="BY16" s="34"/>
       <c r="BZ16" s="34"/>
     </row>
-    <row r="17" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A17" s="29"/>
       <c r="B17" s="30">
         <v>1.6</v>
@@ -2707,7 +2707,7 @@
       <c r="BY17" s="34"/>
       <c r="BZ17" s="34"/>
     </row>
-    <row r="18" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="18"/>
       <c r="B18" s="23">
         <v>2</v>
@@ -2794,16 +2794,16 @@
       <c r="BY18" s="26"/>
       <c r="BZ18" s="26"/>
     </row>
-    <row r="19" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A19" s="29"/>
       <c r="B19" s="30">
         <v>2.1</v>
       </c>
       <c r="C19" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="31" t="s">
         <v>51</v>
-      </c>
-      <c r="D19" s="31" t="s">
-        <v>52</v>
       </c>
       <c r="E19" s="32">
         <v>45188</v>
@@ -2889,16 +2889,16 @@
       <c r="BY19" s="34"/>
       <c r="BZ19" s="34"/>
     </row>
-    <row r="20" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A20" s="29"/>
       <c r="B20" s="30">
         <v>2.2000000000000002</v>
       </c>
       <c r="C20" s="43" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E20" s="32">
         <v>45188</v>
@@ -2984,16 +2984,16 @@
       <c r="BY20" s="34"/>
       <c r="BZ20" s="34"/>
     </row>
-    <row r="21" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A21" s="29"/>
       <c r="B21" s="30">
         <v>2.2999999999999998</v>
       </c>
       <c r="C21" s="47" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E21" s="32">
         <v>45195</v>
@@ -3079,7 +3079,7 @@
       <c r="BY21" s="34"/>
       <c r="BZ21" s="34"/>
     </row>
-    <row r="22" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A22" s="29"/>
       <c r="B22" s="30" t="s">
         <v>15</v>
@@ -3164,7 +3164,7 @@
       <c r="BY22" s="34"/>
       <c r="BZ22" s="34"/>
     </row>
-    <row r="23" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A23" s="29"/>
       <c r="B23" s="30">
         <v>2.4</v>
@@ -3249,7 +3249,7 @@
       <c r="BY23" s="34"/>
       <c r="BZ23" s="34"/>
     </row>
-    <row r="24" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A24" s="29"/>
       <c r="B24" s="30">
         <v>2.5</v>
@@ -3334,7 +3334,7 @@
       <c r="BY24" s="34"/>
       <c r="BZ24" s="34"/>
     </row>
-    <row r="25" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A25" s="29"/>
       <c r="B25" s="30">
         <v>2.6</v>
@@ -3419,7 +3419,7 @@
       <c r="BY25" s="34"/>
       <c r="BZ25" s="34"/>
     </row>
-    <row r="26" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A26" s="29"/>
       <c r="B26" s="30">
         <v>2.7</v>
@@ -3504,7 +3504,7 @@
       <c r="BY26" s="34"/>
       <c r="BZ26" s="34"/>
     </row>
-    <row r="27" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A27" s="29"/>
       <c r="B27" s="30">
         <v>2.8</v>
@@ -3589,7 +3589,7 @@
       <c r="BY27" s="34"/>
       <c r="BZ27" s="34"/>
     </row>
-    <row r="28" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A28" s="29"/>
       <c r="B28" s="30">
         <v>2.9</v>
@@ -3674,7 +3674,7 @@
       <c r="BY28" s="34"/>
       <c r="BZ28" s="34"/>
     </row>
-    <row r="29" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A29" s="29"/>
       <c r="B29" s="42">
         <v>2.1</v>
@@ -3759,7 +3759,7 @@
       <c r="BY29" s="34"/>
       <c r="BZ29" s="34"/>
     </row>
-    <row r="30" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A30" s="29"/>
       <c r="B30" s="42">
         <v>2.11</v>
@@ -3844,7 +3844,7 @@
       <c r="BY30" s="34"/>
       <c r="BZ30" s="34"/>
     </row>
-    <row r="31" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="18"/>
       <c r="B31" s="23">
         <v>3</v>
@@ -3931,7 +3931,7 @@
       <c r="BY31" s="26"/>
       <c r="BZ31" s="26"/>
     </row>
-    <row r="32" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A32" s="29"/>
       <c r="B32" s="30">
         <v>3.1</v>
@@ -4026,7 +4026,7 @@
       <c r="BY32" s="34"/>
       <c r="BZ32" s="34"/>
     </row>
-    <row r="33" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A33" s="29"/>
       <c r="B33" s="30">
         <v>3.2</v>
@@ -4035,7 +4035,7 @@
         <v>49</v>
       </c>
       <c r="D33" s="31" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="E33" s="32">
         <v>45188</v>
@@ -4121,16 +4121,16 @@
       <c r="BY33" s="34"/>
       <c r="BZ33" s="34"/>
     </row>
-    <row r="34" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A34" s="29"/>
       <c r="B34" s="30" t="s">
         <v>17</v>
       </c>
       <c r="C34" s="43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D34" s="31" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E34" s="32">
         <v>45188</v>
@@ -4143,7 +4143,7 @@
         <v>14</v>
       </c>
       <c r="H34" s="49">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I34" s="38"/>
       <c r="J34" s="39"/>
@@ -4216,16 +4216,16 @@
       <c r="BY34" s="34"/>
       <c r="BZ34" s="34"/>
     </row>
-    <row r="35" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A35" s="29"/>
       <c r="B35" s="30" t="s">
         <v>18</v>
       </c>
       <c r="C35" s="46" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D35" s="31" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E35" s="32">
         <v>45188</v>
@@ -4311,16 +4311,16 @@
       <c r="BY35" s="34"/>
       <c r="BZ35" s="34"/>
     </row>
-    <row r="36" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A36" s="29"/>
       <c r="B36" s="30">
         <v>3.3</v>
       </c>
       <c r="C36" s="46" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D36" s="31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E36" s="32">
         <v>45195</v>
@@ -4406,16 +4406,16 @@
       <c r="BY36" s="34"/>
       <c r="BZ36" s="34"/>
     </row>
-    <row r="37" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A37" s="29"/>
       <c r="B37" s="30">
         <v>3.4</v>
       </c>
       <c r="C37" s="46" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D37" s="31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E37" s="32">
         <v>45195</v>
@@ -4501,7 +4501,7 @@
       <c r="BY37" s="34"/>
       <c r="BZ37" s="34"/>
     </row>
-    <row r="38" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A38" s="29"/>
       <c r="B38" s="30"/>
       <c r="C38" s="46"/>
@@ -4581,7 +4581,7 @@
       <c r="BY38" s="34"/>
       <c r="BZ38" s="34"/>
     </row>
-    <row r="39" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A39" s="29"/>
       <c r="B39" s="30"/>
       <c r="C39" s="46"/>
@@ -4661,7 +4661,7 @@
       <c r="BY39" s="34"/>
       <c r="BZ39" s="34"/>
     </row>
-    <row r="40" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A40" s="29"/>
       <c r="B40" s="30"/>
       <c r="C40" s="46"/>
@@ -4743,6 +4743,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="O2:AE2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="P4:AB4"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:W8"/>
+    <mergeCell ref="X8:AL8"/>
+    <mergeCell ref="AM8:BA8"/>
+    <mergeCell ref="X9:AB9"/>
+    <mergeCell ref="AC9:AG9"/>
+    <mergeCell ref="AH9:AL9"/>
+    <mergeCell ref="AM9:AQ9"/>
+    <mergeCell ref="AR9:AV9"/>
+    <mergeCell ref="AW9:BA9"/>
     <mergeCell ref="BB8:BZ8"/>
     <mergeCell ref="I9:M9"/>
     <mergeCell ref="N9:R9"/>
@@ -4759,26 +4779,6 @@
     <mergeCell ref="BQ9:BU9"/>
     <mergeCell ref="BV9:BZ9"/>
     <mergeCell ref="S9:W9"/>
-    <mergeCell ref="AM8:BA8"/>
-    <mergeCell ref="X9:AB9"/>
-    <mergeCell ref="AC9:AG9"/>
-    <mergeCell ref="AH9:AL9"/>
-    <mergeCell ref="AM9:AQ9"/>
-    <mergeCell ref="AR9:AV9"/>
-    <mergeCell ref="AW9:BA9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="O2:AE2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:AB4"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:W8"/>
-    <mergeCell ref="X8:AL8"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
@@ -4810,6 +4810,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F7EF2104F2CEFE4DACFBF5BA7D93FB4D" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bb0ed258f694207805e211ca255f9b46">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6b71f768-6d8b-468c-a986-1e1afc74f0e3" xmlns:ns4="d07d918a-d172-4450-8f4a-7b087689ff85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c03c9fe975be0719773112499dde791" ns3:_="" ns4:_="">
     <xsd:import namespace="6b71f768-6d8b-468c-a986-1e1afc74f0e3"/>
@@ -5038,22 +5053,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14D564B3-5264-41FC-B8E0-395B567D9994}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d07d918a-d172-4450-8f4a-7b087689ff85"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6b71f768-6d8b-468c-a986-1e1afc74f0e3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7F187D4-7552-4664-8374-8AA9CBDA3C6B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FABC364-430D-422C-AD85-145699D2125C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5070,29 +5095,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7F187D4-7552-4664-8374-8AA9CBDA3C6B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14D564B3-5264-41FC-B8E0-395B567D9994}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d07d918a-d172-4450-8f4a-7b087689ff85"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6b71f768-6d8b-468c-a986-1e1afc74f0e3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>